--- a/data/pca/factorExposure/factorExposure_2019-02-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-02-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +729,103 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.1094574414102637</v>
+        <v>0.06739369981996536</v>
       </c>
       <c r="C2">
-        <v>0.01828504590321414</v>
+        <v>0.03246520872855844</v>
       </c>
       <c r="D2">
-        <v>-0.0415178360395683</v>
+        <v>0.01790691859865816</v>
       </c>
       <c r="E2">
-        <v>0.1495186893503619</v>
+        <v>0.03964499416928723</v>
       </c>
       <c r="F2">
-        <v>0.01635689463863961</v>
+        <v>-0.1392880345560543</v>
       </c>
       <c r="G2">
-        <v>-0.003137554810804956</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.05409845832317359</v>
+      </c>
+      <c r="H2">
+        <v>-0.05320274510475882</v>
+      </c>
+      <c r="I2">
+        <v>0.08007740863989252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.2094243811600501</v>
+        <v>0.1605392153932793</v>
       </c>
       <c r="C3">
-        <v>0.1549770646891683</v>
+        <v>0.09772226157246165</v>
       </c>
       <c r="D3">
-        <v>0.04613495376882661</v>
+        <v>-0.003999389235475569</v>
       </c>
       <c r="E3">
-        <v>0.3403454253131591</v>
+        <v>-0.003296672510151682</v>
       </c>
       <c r="F3">
-        <v>0.08825090574275762</v>
+        <v>-0.3749997573718084</v>
       </c>
       <c r="G3">
-        <v>-0.07684752042376711</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.2458572297878002</v>
+      </c>
+      <c r="H3">
+        <v>-0.08805335151625017</v>
+      </c>
+      <c r="I3">
+        <v>0.3448755543655038</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.09581352180031376</v>
+        <v>0.07138104527369485</v>
       </c>
       <c r="C4">
-        <v>0.04870430820430319</v>
+        <v>0.04661250850308041</v>
       </c>
       <c r="D4">
-        <v>-0.02362284412281953</v>
+        <v>-0.01497241446353785</v>
       </c>
       <c r="E4">
-        <v>0.07600813789996752</v>
+        <v>0.04074022605641066</v>
       </c>
       <c r="F4">
-        <v>0.02864269682480093</v>
+        <v>-0.0810916397246691</v>
       </c>
       <c r="G4">
-        <v>0.01560910054515254</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.01916755183865176</v>
+      </c>
+      <c r="H4">
+        <v>-0.04662466066945199</v>
+      </c>
+      <c r="I4">
+        <v>0.04963449198809621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +845,277 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01959688992752451</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.01105595941978757</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.005374079135918403</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.005310094968444688</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.005666495134141667</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.001573980327481319</v>
+      </c>
+      <c r="H6">
+        <v>0.01990630397912857</v>
+      </c>
+      <c r="I6">
+        <v>-0.01088354078091375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.04138785207646049</v>
+        <v>0.03543697482669889</v>
       </c>
       <c r="C7">
-        <v>0.01394762407749666</v>
+        <v>0.01720886931365791</v>
       </c>
       <c r="D7">
-        <v>-0.03008714552836364</v>
+        <v>-0.03566329025153684</v>
       </c>
       <c r="E7">
-        <v>0.06977891092017702</v>
+        <v>0.02813275541303951</v>
       </c>
       <c r="F7">
-        <v>0.01523040743609965</v>
+        <v>-0.05598595466846435</v>
       </c>
       <c r="G7">
-        <v>-0.05020425215644797</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.04717090364671161</v>
+      </c>
+      <c r="H7">
+        <v>-0.01315901051683939</v>
+      </c>
+      <c r="I7">
+        <v>0.01503580827688464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.04736908234557902</v>
+        <v>0.03015290466786062</v>
       </c>
       <c r="C8">
-        <v>0.0551369317581674</v>
+        <v>0.04865645594539902</v>
       </c>
       <c r="D8">
-        <v>-0.0024268318895132</v>
+        <v>-0.01194502981097536</v>
       </c>
       <c r="E8">
-        <v>0.06939044516276899</v>
+        <v>0.0219594645291994</v>
       </c>
       <c r="F8">
-        <v>0.01788837473692162</v>
+        <v>-0.07282598731237683</v>
       </c>
       <c r="G8">
-        <v>0.01276353950169968</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.03495944019257938</v>
+      </c>
+      <c r="H8">
+        <v>-0.04159517743769429</v>
+      </c>
+      <c r="I8">
+        <v>0.05592581365505032</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.08193329012488093</v>
+        <v>0.0608707485221921</v>
       </c>
       <c r="C9">
-        <v>0.04300973047858232</v>
+        <v>0.04213075762561043</v>
       </c>
       <c r="D9">
-        <v>-0.03450632968492938</v>
+        <v>-0.0185418480910206</v>
       </c>
       <c r="E9">
-        <v>0.06200892297272537</v>
+        <v>0.03513595280224567</v>
       </c>
       <c r="F9">
-        <v>0.04306788479301561</v>
+        <v>-0.08120502350845255</v>
       </c>
       <c r="G9">
-        <v>0.02253633141198974</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.01912918555521014</v>
+      </c>
+      <c r="H9">
+        <v>-0.0448452241418325</v>
+      </c>
+      <c r="I9">
+        <v>0.02219799165699825</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.01804438830470416</v>
+        <v>0.03517486958918352</v>
       </c>
       <c r="C10">
-        <v>-0.1643939182928917</v>
+        <v>-0.1606676895461657</v>
       </c>
       <c r="D10">
-        <v>0.02614104599125657</v>
+        <v>0.01013837813948556</v>
       </c>
       <c r="E10">
-        <v>0.06988373947916289</v>
+        <v>-0.04018799388594347</v>
       </c>
       <c r="F10">
-        <v>-0.01246316558080779</v>
+        <v>-0.06641645341467471</v>
       </c>
       <c r="G10">
-        <v>0.007309169114451996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.004541979978597553</v>
+      </c>
+      <c r="H10">
+        <v>-0.03265789927122789</v>
+      </c>
+      <c r="I10">
+        <v>0.09166067719749484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.05845750914566159</v>
+        <v>0.04853096418491981</v>
       </c>
       <c r="C11">
-        <v>0.01457826893893263</v>
+        <v>0.03157515882419432</v>
       </c>
       <c r="D11">
-        <v>0.005554812696174474</v>
+        <v>0.006102004519985045</v>
       </c>
       <c r="E11">
-        <v>0.04574183177313264</v>
+        <v>0.01043370185138898</v>
       </c>
       <c r="F11">
-        <v>-0.009881962690495249</v>
+        <v>-0.04010559066067308</v>
       </c>
       <c r="G11">
-        <v>0.002012459202000917</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.00214595897644414</v>
+      </c>
+      <c r="H11">
+        <v>-0.01350611393095133</v>
+      </c>
+      <c r="I11">
+        <v>0.005681247309936337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04559531843496552</v>
+        <v>0.04528008188898437</v>
       </c>
       <c r="C12">
-        <v>0.01971817879538257</v>
+        <v>0.02842079477097428</v>
       </c>
       <c r="D12">
-        <v>0.002334799074055933</v>
+        <v>-0.005010306107689413</v>
       </c>
       <c r="E12">
-        <v>0.02750410686632997</v>
+        <v>0.01165670804686247</v>
       </c>
       <c r="F12">
-        <v>0.007958849316417082</v>
+        <v>-0.01571327601021347</v>
       </c>
       <c r="G12">
-        <v>-0.005899081895571754</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.00334286381025743</v>
+      </c>
+      <c r="H12">
+        <v>-0.004332881010040174</v>
+      </c>
+      <c r="I12">
+        <v>0.002654596849932784</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.06278689805638753</v>
+        <v>0.04191542616053352</v>
       </c>
       <c r="C13">
-        <v>0.02691526088525199</v>
+        <v>0.02476234755540061</v>
       </c>
       <c r="D13">
-        <v>0.007020046015598881</v>
+        <v>0.01511669566365638</v>
       </c>
       <c r="E13">
-        <v>0.1135821390493809</v>
+        <v>0.009237085175571202</v>
       </c>
       <c r="F13">
-        <v>0.002514884290389344</v>
+        <v>-0.1056146390314815</v>
       </c>
       <c r="G13">
-        <v>-0.009886102493981731</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.03586126226245023</v>
+      </c>
+      <c r="H13">
+        <v>-0.02679841606175149</v>
+      </c>
+      <c r="I13">
+        <v>0.04143539211177528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.03398343173130841</v>
+        <v>0.02689065256918167</v>
       </c>
       <c r="C14">
-        <v>0.02392535113342842</v>
+        <v>0.01991121097150758</v>
       </c>
       <c r="D14">
-        <v>-0.02533496387905502</v>
+        <v>-0.005911391929636562</v>
       </c>
       <c r="E14">
-        <v>0.03499400399839903</v>
+        <v>0.02736105622809499</v>
       </c>
       <c r="F14">
-        <v>-0.0232572298904333</v>
+        <v>-0.04103207334849041</v>
       </c>
       <c r="G14">
-        <v>-0.01317316356109054</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.05098421052400183</v>
+      </c>
+      <c r="H14">
+        <v>-0.02496377099609581</v>
+      </c>
+      <c r="I14">
+        <v>0.01433018347277299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1135,45 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.04818797948907242</v>
+        <v>0.04230147950487644</v>
       </c>
       <c r="C16">
-        <v>0.02492360607428756</v>
+        <v>0.0360134315552566</v>
       </c>
       <c r="D16">
-        <v>0.007611704631643854</v>
+        <v>0.000676816771738387</v>
       </c>
       <c r="E16">
-        <v>0.03407549990125198</v>
+        <v>0.009933946434540554</v>
       </c>
       <c r="F16">
-        <v>0.0005942033170706247</v>
+        <v>-0.03575660850767228</v>
       </c>
       <c r="G16">
-        <v>-0.008880117542733289</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.00210157225988998</v>
+      </c>
+      <c r="H16">
+        <v>-0.00231480385899013</v>
+      </c>
+      <c r="I16">
+        <v>0.01223978952140466</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1193,16 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1222,103 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.05619628624224565</v>
+        <v>0.04826356403011937</v>
       </c>
       <c r="C19">
-        <v>0.04549316407139188</v>
+        <v>0.04231633600131032</v>
       </c>
       <c r="D19">
-        <v>0.002394554545800342</v>
+        <v>0.00185985730220495</v>
       </c>
       <c r="E19">
-        <v>0.08252098527700466</v>
+        <v>0.02390252935255538</v>
       </c>
       <c r="F19">
-        <v>-0.01437309107066871</v>
+        <v>-0.08552191243494618</v>
       </c>
       <c r="G19">
-        <v>-0.04554563049855268</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.06844628776148902</v>
+      </c>
+      <c r="H19">
+        <v>-0.01425407193365652</v>
+      </c>
+      <c r="I19">
+        <v>0.05964496095131961</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.03740956547691069</v>
+        <v>0.01719466469498005</v>
       </c>
       <c r="C20">
-        <v>0.04067986877451513</v>
+        <v>0.02888933900914119</v>
       </c>
       <c r="D20">
-        <v>-0.01270159758512286</v>
+        <v>-0.006508105093385598</v>
       </c>
       <c r="E20">
-        <v>0.06871669461385058</v>
+        <v>0.02196303688438606</v>
       </c>
       <c r="F20">
-        <v>0.001199573418855705</v>
+        <v>-0.06874527153717611</v>
       </c>
       <c r="G20">
-        <v>-0.03376939719738403</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.06248092035849449</v>
+      </c>
+      <c r="H20">
+        <v>-0.01700801112858921</v>
+      </c>
+      <c r="I20">
+        <v>0.05815901571628793</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.03521927171467522</v>
+        <v>0.03010862380269546</v>
       </c>
       <c r="C21">
-        <v>0.03166485596095554</v>
+        <v>0.02921304252699315</v>
       </c>
       <c r="D21">
-        <v>-0.001856477797267781</v>
+        <v>-0.01285636824115478</v>
       </c>
       <c r="E21">
-        <v>0.1156658856110522</v>
+        <v>0.00819288416941575</v>
       </c>
       <c r="F21">
-        <v>-0.00162216540579477</v>
+        <v>-0.08317458689744921</v>
       </c>
       <c r="G21">
-        <v>0.0358043709307567</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.02091022002149216</v>
+      </c>
+      <c r="H21">
+        <v>-0.04647880437835032</v>
+      </c>
+      <c r="I21">
+        <v>-0.009943223784280515</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1338,16 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1367,335 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.05139480877682041</v>
+        <v>0.04211463876795864</v>
       </c>
       <c r="C24">
-        <v>0.02320870619180279</v>
+        <v>0.02920635434743164</v>
       </c>
       <c r="D24">
-        <v>0.003346878897780789</v>
+        <v>0.0001316857994023165</v>
       </c>
       <c r="E24">
-        <v>0.04453069529376778</v>
+        <v>0.01146189714856099</v>
       </c>
       <c r="F24">
-        <v>0.008639428262410849</v>
+        <v>-0.03876327793041141</v>
       </c>
       <c r="G24">
-        <v>-0.007180089835645272</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.0007925308625107762</v>
+      </c>
+      <c r="H24">
+        <v>-0.005161887381189706</v>
+      </c>
+      <c r="I24">
+        <v>0.008472205310592978</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.05165565056283013</v>
+        <v>0.04782336031120999</v>
       </c>
       <c r="C25">
-        <v>0.01401750404519831</v>
+        <v>0.02589047169870515</v>
       </c>
       <c r="D25">
-        <v>0.002585867686598037</v>
+        <v>0.001506102552608816</v>
       </c>
       <c r="E25">
-        <v>0.04307257421139617</v>
+        <v>0.009689105762252924</v>
       </c>
       <c r="F25">
-        <v>-0.001974162294762714</v>
+        <v>-0.04555467193777817</v>
       </c>
       <c r="G25">
-        <v>0.002308984288541481</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.003403931385288312</v>
+      </c>
+      <c r="H25">
+        <v>-0.01046121808804316</v>
+      </c>
+      <c r="I25">
+        <v>-0.0003340210579303611</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.02217052545468631</v>
+        <v>0.01677053627432052</v>
       </c>
       <c r="C26">
-        <v>0.03019766438864924</v>
+        <v>0.02602675447057872</v>
       </c>
       <c r="D26">
-        <v>-0.005088785403193646</v>
+        <v>0.003868565209201535</v>
       </c>
       <c r="E26">
-        <v>0.03974999150273046</v>
+        <v>0.001910609850706281</v>
       </c>
       <c r="F26">
-        <v>-0.02672805109588835</v>
+        <v>-0.0469019509810699</v>
       </c>
       <c r="G26">
-        <v>-0.005673250366813965</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03390327985290387</v>
+      </c>
+      <c r="H26">
+        <v>-0.01888198099226645</v>
+      </c>
+      <c r="I26">
+        <v>0.005920746869567631</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.1210531749262978</v>
+        <v>0.07364990779110002</v>
       </c>
       <c r="C27">
-        <v>0.02936138278672819</v>
+        <v>0.02866249285297012</v>
       </c>
       <c r="D27">
-        <v>-0.01668537224045011</v>
+        <v>-0.005026453305276675</v>
       </c>
       <c r="E27">
-        <v>0.08947935462724227</v>
+        <v>0.03472936834392068</v>
       </c>
       <c r="F27">
-        <v>0.02111896759839224</v>
+        <v>-0.06716473287938281</v>
       </c>
       <c r="G27">
-        <v>0.01562715620109831</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01225504623088781</v>
+      </c>
+      <c r="H27">
+        <v>-0.03159925757098679</v>
+      </c>
+      <c r="I27">
+        <v>0.03523159448286631</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.01259704080208635</v>
+        <v>0.05151768641620974</v>
       </c>
       <c r="C28">
-        <v>-0.2463412938474647</v>
+        <v>-0.242258338096969</v>
       </c>
       <c r="D28">
-        <v>0.03229295368020901</v>
+        <v>0.004660859280097022</v>
       </c>
       <c r="E28">
-        <v>0.04807101149869627</v>
+        <v>-0.05913320433628199</v>
       </c>
       <c r="F28">
-        <v>-0.01040248608452996</v>
+        <v>-0.05655350135618444</v>
       </c>
       <c r="G28">
-        <v>0.03746169570755972</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.005797562922770315</v>
+      </c>
+      <c r="H28">
+        <v>-0.03967530744617749</v>
+      </c>
+      <c r="I28">
+        <v>0.1411559224434694</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.02574817663156928</v>
+        <v>0.02324193865003417</v>
       </c>
       <c r="C29">
-        <v>0.02434895773811916</v>
+        <v>0.01754746122442494</v>
       </c>
       <c r="D29">
-        <v>-0.0292316437450097</v>
+        <v>-0.009209510693046269</v>
       </c>
       <c r="E29">
-        <v>0.03716443368800029</v>
+        <v>0.02809671406481622</v>
       </c>
       <c r="F29">
-        <v>-0.0135818846331527</v>
+        <v>-0.03763330316700178</v>
       </c>
       <c r="G29">
-        <v>-6.645392099257254e-05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.05034340852090183</v>
+      </c>
+      <c r="H29">
+        <v>-0.03131839002705952</v>
+      </c>
+      <c r="I29">
+        <v>0.001875431225491951</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1157672363453735</v>
+        <v>0.08902062296572406</v>
       </c>
       <c r="C30">
-        <v>0.02399047152972459</v>
+        <v>0.04959135360585591</v>
       </c>
       <c r="D30">
-        <v>-0.03225715540992232</v>
+        <v>0.03751024080881926</v>
       </c>
       <c r="E30">
-        <v>0.109386010219581</v>
+        <v>0.03484732532020352</v>
       </c>
       <c r="F30">
-        <v>-0.008188829747762428</v>
+        <v>-0.1041269505758103</v>
       </c>
       <c r="G30">
-        <v>-0.02506821724153165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01713049317597592</v>
+      </c>
+      <c r="H30">
+        <v>0.01333492910555651</v>
+      </c>
+      <c r="I30">
+        <v>0.004735953362953856</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.0699439985095404</v>
+        <v>0.06091413995370427</v>
       </c>
       <c r="C31">
-        <v>0.01164502490785108</v>
+        <v>0.02209980123900676</v>
       </c>
       <c r="D31">
-        <v>-0.01238685186684017</v>
+        <v>0.01043998456802309</v>
       </c>
       <c r="E31">
-        <v>-0.01906626201107055</v>
+        <v>0.02448161470230977</v>
       </c>
       <c r="F31">
-        <v>-0.05400051107907387</v>
+        <v>-0.000777851272286194</v>
       </c>
       <c r="G31">
-        <v>-0.003339526059452978</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.03720023690371693</v>
+      </c>
+      <c r="H31">
+        <v>-0.04319131679323559</v>
+      </c>
+      <c r="I31">
+        <v>0.01725272340065949</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.07095977912994708</v>
+        <v>0.0446414662293967</v>
       </c>
       <c r="C32">
-        <v>0.0411195942373759</v>
+        <v>0.04554641519778604</v>
       </c>
       <c r="D32">
-        <v>-0.0205451841595164</v>
+        <v>-0.01436829730339721</v>
       </c>
       <c r="E32">
-        <v>0.09969120210403921</v>
+        <v>0.03446389148806042</v>
       </c>
       <c r="F32">
-        <v>-0.009134378977910527</v>
+        <v>-0.08940642330062822</v>
       </c>
       <c r="G32">
-        <v>-0.02001814191192357</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.03035528755506019</v>
+      </c>
+      <c r="H32">
+        <v>-0.02972388415617138</v>
+      </c>
+      <c r="I32">
+        <v>0.04117051806344074</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.06886960506056819</v>
+        <v>0.0554390904509686</v>
       </c>
       <c r="C33">
-        <v>0.04790159214067485</v>
+        <v>0.05218722934050744</v>
       </c>
       <c r="D33">
-        <v>-0.01056272464208955</v>
+        <v>0.01889359913960201</v>
       </c>
       <c r="E33">
-        <v>0.08018269601228754</v>
+        <v>0.01598962560226121</v>
       </c>
       <c r="F33">
-        <v>-0.01764338945129923</v>
+        <v>-0.07816570171890887</v>
       </c>
       <c r="G33">
-        <v>0.0307370890307283</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03487703637496542</v>
+      </c>
+      <c r="H33">
+        <v>-0.04328929630160346</v>
+      </c>
+      <c r="I33">
+        <v>0.01076509077801636</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.05032935565923405</v>
+        <v>0.04405460595947846</v>
       </c>
       <c r="C34">
-        <v>0.02164825351906262</v>
+        <v>0.03432816473926745</v>
       </c>
       <c r="D34">
-        <v>-0.003090802124598324</v>
+        <v>-0.004386904539441965</v>
       </c>
       <c r="E34">
-        <v>0.02758665475597005</v>
+        <v>0.0194707976298545</v>
       </c>
       <c r="F34">
-        <v>0.001060066193483078</v>
+        <v>-0.03299990553798604</v>
       </c>
       <c r="G34">
-        <v>-0.01128537988673278</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.00661847880368116</v>
+      </c>
+      <c r="H34">
+        <v>-0.005815155736335861</v>
+      </c>
+      <c r="I34">
+        <v>0.008014649998837744</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1715,45 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01588403778940591</v>
+        <v>0.01555252591002093</v>
       </c>
       <c r="C36">
-        <v>0.001865096650195415</v>
+        <v>0.003485548516783846</v>
       </c>
       <c r="D36">
-        <v>-0.009489677647881955</v>
+        <v>-0.004711988054675417</v>
       </c>
       <c r="E36">
-        <v>0.02419360283925014</v>
+        <v>0.01002214173843977</v>
       </c>
       <c r="F36">
-        <v>-0.01749972868092379</v>
+        <v>-0.02684155262274298</v>
       </c>
       <c r="G36">
-        <v>-0.003850243335392282</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.03204798022573545</v>
+      </c>
+      <c r="H36">
+        <v>-0.02624952748316779</v>
+      </c>
+      <c r="I36">
+        <v>-0.007271672283323888</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1773,219 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.04859951412979458</v>
+        <v>0.0343822404690915</v>
       </c>
       <c r="C38">
-        <v>0.01848684576083429</v>
+        <v>0.01538868211293947</v>
       </c>
       <c r="D38">
-        <v>-0.02040242498471355</v>
+        <v>-0.00349715952712772</v>
       </c>
       <c r="E38">
-        <v>0.02407717637007945</v>
+        <v>0.01332883966441981</v>
       </c>
       <c r="F38">
-        <v>0.02998509616021237</v>
+        <v>-0.04714794051638616</v>
       </c>
       <c r="G38">
-        <v>0.005612274105748199</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01777436554323418</v>
+      </c>
+      <c r="H38">
+        <v>-0.03137807058839752</v>
+      </c>
+      <c r="I38">
+        <v>-0.0142264235064296</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.0710541834260604</v>
+        <v>0.05368404188761357</v>
       </c>
       <c r="C39">
-        <v>0.02056702068762879</v>
+        <v>0.04514129675558508</v>
       </c>
       <c r="D39">
-        <v>-0.002336314588092164</v>
+        <v>0.004813426891602544</v>
       </c>
       <c r="E39">
-        <v>0.04491146954364141</v>
+        <v>0.01827623852284143</v>
       </c>
       <c r="F39">
-        <v>-0.001297762865361452</v>
+        <v>-0.05634717637989109</v>
       </c>
       <c r="G39">
-        <v>0.0110659059207063</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.002341009852417236</v>
+      </c>
+      <c r="H39">
+        <v>-0.02069848433289465</v>
+      </c>
+      <c r="I39">
+        <v>-0.01497740888956095</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.07797097768585634</v>
+        <v>0.05508736602535231</v>
       </c>
       <c r="C40">
-        <v>0.04404492117887072</v>
+        <v>0.04131437227573508</v>
       </c>
       <c r="D40">
-        <v>-0.008076513918543091</v>
+        <v>0.02027380098495941</v>
       </c>
       <c r="E40">
-        <v>0.1100558565022371</v>
+        <v>0.02526001970346976</v>
       </c>
       <c r="F40">
-        <v>0.0207281049816983</v>
+        <v>-0.09392938345375577</v>
       </c>
       <c r="G40">
-        <v>0.001531991043456592</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.04227861368066031</v>
+      </c>
+      <c r="H40">
+        <v>-0.02900477287261063</v>
+      </c>
+      <c r="I40">
+        <v>0.07133572736751363</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.004987743437825059</v>
+        <v>0.00349989436839918</v>
       </c>
       <c r="C41">
-        <v>0.02284925531859606</v>
+        <v>0.01186039167030458</v>
       </c>
       <c r="D41">
-        <v>-0.02768673310545107</v>
+        <v>2.211096079195053e-05</v>
       </c>
       <c r="E41">
-        <v>0.0136420803582554</v>
+        <v>0.0114824255281303</v>
       </c>
       <c r="F41">
-        <v>-0.02079735941811492</v>
+        <v>-0.01357223292017102</v>
       </c>
       <c r="G41">
-        <v>0.02157226235903028</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.03168753912069752</v>
+      </c>
+      <c r="H41">
+        <v>-0.04256723716475207</v>
+      </c>
+      <c r="I41">
+        <v>0.0237752912778147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.1422744810073777</v>
+        <v>0.2240867956557829</v>
       </c>
       <c r="C42">
-        <v>0.1977044886065519</v>
+        <v>0.2816841623515888</v>
       </c>
       <c r="D42">
-        <v>0.9291765090569034</v>
+        <v>0.0620238184945397</v>
       </c>
       <c r="E42">
-        <v>-0.1052300857672222</v>
+        <v>-0.8995655675289003</v>
       </c>
       <c r="F42">
-        <v>-0.1346606335590442</v>
+        <v>0.1620693164416321</v>
       </c>
       <c r="G42">
-        <v>-0.04347130498833179</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.003989790676972373</v>
+      </c>
+      <c r="H42">
+        <v>0.00589889673841079</v>
+      </c>
+      <c r="I42">
+        <v>0.06605558102615576</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.00849920608234493</v>
+        <v>0.00791330209205912</v>
       </c>
       <c r="C43">
-        <v>0.02072934846722776</v>
+        <v>0.01334685814998919</v>
       </c>
       <c r="D43">
-        <v>-0.01522078514741223</v>
+        <v>0.002587957254682287</v>
       </c>
       <c r="E43">
-        <v>0.03430184887704028</v>
+        <v>0.01137285859498813</v>
       </c>
       <c r="F43">
-        <v>-0.01865021208937617</v>
+        <v>-0.02950542969679325</v>
       </c>
       <c r="G43">
-        <v>-0.004023343437483106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.02917753808027781</v>
+      </c>
+      <c r="H43">
+        <v>-0.02863357201917582</v>
+      </c>
+      <c r="I43">
+        <v>0.01938199919648298</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.04074759664265901</v>
+        <v>0.02913314587528179</v>
       </c>
       <c r="C44">
-        <v>0.04930129951609784</v>
+        <v>0.03825747769636852</v>
       </c>
       <c r="D44">
-        <v>-0.01271756020623125</v>
+        <v>-0.001891974370673091</v>
       </c>
       <c r="E44">
-        <v>0.13428277926888</v>
+        <v>0.01199285706377318</v>
       </c>
       <c r="F44">
-        <v>-0.03516093183571933</v>
+        <v>-0.1221068209751238</v>
       </c>
       <c r="G44">
-        <v>0.03916469623284721</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.08888711387710473</v>
+      </c>
+      <c r="H44">
+        <v>-0.06880245934956847</v>
+      </c>
+      <c r="I44">
+        <v>0.05055640773683388</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2005,103 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.02909907790180612</v>
+        <v>0.0246389814573461</v>
       </c>
       <c r="C46">
-        <v>0.02921507444844701</v>
+        <v>0.03406755239286798</v>
       </c>
       <c r="D46">
-        <v>-0.02925345189563724</v>
+        <v>0.002417191757499355</v>
       </c>
       <c r="E46">
-        <v>0.03663362652628434</v>
+        <v>0.03165325572058786</v>
       </c>
       <c r="F46">
-        <v>-0.0240833432395679</v>
+        <v>-0.05137759958002051</v>
       </c>
       <c r="G46">
-        <v>0.01122235556068195</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.0566944945862508</v>
+      </c>
+      <c r="H46">
+        <v>-0.02793402976503661</v>
+      </c>
+      <c r="I46">
+        <v>0.005962845555175588</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.0937526176078949</v>
+        <v>0.08894903107451592</v>
       </c>
       <c r="C47">
-        <v>0.009683042824869785</v>
+        <v>0.01870917112965536</v>
       </c>
       <c r="D47">
-        <v>-0.01784399064475806</v>
+        <v>0.005442106177621897</v>
       </c>
       <c r="E47">
-        <v>-0.01838833348621871</v>
+        <v>0.02773316414658923</v>
       </c>
       <c r="F47">
-        <v>-0.02480050451150756</v>
+        <v>0.01068958162317667</v>
       </c>
       <c r="G47">
-        <v>0.008021795466095051</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.05482587024704187</v>
+      </c>
+      <c r="H47">
+        <v>-0.04689546283552827</v>
+      </c>
+      <c r="I47">
+        <v>0.02946027176010748</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.02045638686533431</v>
+        <v>0.02015480279277515</v>
       </c>
       <c r="C48">
-        <v>0.02423240502178206</v>
+        <v>0.0191354948395951</v>
       </c>
       <c r="D48">
-        <v>-0.01593404055220442</v>
+        <v>-0.001363330152301023</v>
       </c>
       <c r="E48">
-        <v>0.03123286698010707</v>
+        <v>0.01442203609924945</v>
       </c>
       <c r="F48">
-        <v>-0.005644562873907162</v>
+        <v>-0.02839238811028965</v>
       </c>
       <c r="G48">
-        <v>0.001652251213609453</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02071444089829591</v>
+      </c>
+      <c r="H48">
+        <v>-0.02214000084652795</v>
+      </c>
+      <c r="I48">
+        <v>0.01292006225845072</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2121,74 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.09571614479842308</v>
+        <v>0.08823982441191983</v>
       </c>
       <c r="C50">
-        <v>0.02838750136369017</v>
+        <v>0.03905153435737584</v>
       </c>
       <c r="D50">
-        <v>-0.02103034197924626</v>
+        <v>-0.009968334388152688</v>
       </c>
       <c r="E50">
-        <v>-0.01649817221174718</v>
+        <v>0.02732484537456299</v>
       </c>
       <c r="F50">
-        <v>-0.04513402460520637</v>
+        <v>0.00704312291487813</v>
       </c>
       <c r="G50">
-        <v>0.001973023095714282</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.04387883859060593</v>
+      </c>
+      <c r="H50">
+        <v>-0.00140417448829875</v>
+      </c>
+      <c r="I50">
+        <v>-0.005445464901226991</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.05327707150226862</v>
+        <v>0.03904955906837695</v>
       </c>
       <c r="C51">
-        <v>-0.01691999896235161</v>
+        <v>-0.005628476885560646</v>
       </c>
       <c r="D51">
-        <v>0.00172647413771842</v>
+        <v>0.01236601770245125</v>
       </c>
       <c r="E51">
-        <v>0.08686363748720764</v>
+        <v>0.008433471544023479</v>
       </c>
       <c r="F51">
-        <v>-0.05421774265047917</v>
+        <v>-0.09809333931758585</v>
       </c>
       <c r="G51">
-        <v>0.02735418621282359</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.05325291125087973</v>
+      </c>
+      <c r="H51">
+        <v>-0.06500212653841553</v>
+      </c>
+      <c r="I51">
+        <v>0.0255518076839558</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2208,277 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1418805987413648</v>
+        <v>0.1238921764973783</v>
       </c>
       <c r="C53">
-        <v>0.01720715118587357</v>
+        <v>0.03710525983986306</v>
       </c>
       <c r="D53">
-        <v>-0.04750451010337409</v>
+        <v>0.006264423881425952</v>
       </c>
       <c r="E53">
-        <v>-0.04659461428005265</v>
+        <v>0.05758986992272606</v>
       </c>
       <c r="F53">
-        <v>-0.03401527964989091</v>
+        <v>0.04234632688410018</v>
       </c>
       <c r="G53">
-        <v>0.010845900482545</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.004876176306830462</v>
+      </c>
+      <c r="H53">
+        <v>-0.03275282301073792</v>
+      </c>
+      <c r="I53">
+        <v>0.0451896697119397</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.02567096805998415</v>
+        <v>0.02461984084847271</v>
       </c>
       <c r="C54">
-        <v>0.008859390051018462</v>
+        <v>0.00348398995298978</v>
       </c>
       <c r="D54">
-        <v>-0.02720769248274482</v>
+        <v>-0.005272571225970648</v>
       </c>
       <c r="E54">
-        <v>0.04152545908927266</v>
+        <v>0.02542333205119827</v>
       </c>
       <c r="F54">
-        <v>-0.01945470450075892</v>
+        <v>-0.03701757042338248</v>
       </c>
       <c r="G54">
-        <v>0.02781926812765564</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.04639441011337295</v>
+      </c>
+      <c r="H54">
+        <v>-0.05099149077199996</v>
+      </c>
+      <c r="I54">
+        <v>0.01899821327994135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1050745627836883</v>
+        <v>0.09750928205038223</v>
       </c>
       <c r="C55">
-        <v>0.00425519706119401</v>
+        <v>0.03287547008817325</v>
       </c>
       <c r="D55">
-        <v>-0.03634871378697913</v>
+        <v>-0.01149163345516802</v>
       </c>
       <c r="E55">
-        <v>-0.01791813828690917</v>
+        <v>0.03783318594130487</v>
       </c>
       <c r="F55">
-        <v>0.01781224238476555</v>
+        <v>0.02980693567952251</v>
       </c>
       <c r="G55">
-        <v>-0.02440065555231591</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01190641832437333</v>
+      </c>
+      <c r="H55">
+        <v>0.002395878238097894</v>
+      </c>
+      <c r="I55">
+        <v>0.01998607682740811</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1779759780215143</v>
+        <v>0.1641569351157069</v>
       </c>
       <c r="C56">
-        <v>-0.01473934054198554</v>
+        <v>0.02021429386280373</v>
       </c>
       <c r="D56">
-        <v>-0.08758733255954498</v>
+        <v>-0.0003207639378869196</v>
       </c>
       <c r="E56">
-        <v>-0.1048224794576942</v>
+        <v>0.08882350809201926</v>
       </c>
       <c r="F56">
-        <v>0.007005891030405034</v>
+        <v>0.08793681944646899</v>
       </c>
       <c r="G56">
-        <v>-0.04049436118274592</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.04167680596967421</v>
+      </c>
+      <c r="H56">
+        <v>0.01180946615259081</v>
+      </c>
+      <c r="I56">
+        <v>0.0440522225043392</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.08403227505714704</v>
+        <v>0.06470381278399991</v>
       </c>
       <c r="C57">
-        <v>0.02939720882015647</v>
+        <v>0.03161177291185152</v>
       </c>
       <c r="D57">
-        <v>-0.024141482811094</v>
+        <v>0.01747803325356835</v>
       </c>
       <c r="E57">
-        <v>0.04969333233062243</v>
+        <v>0.00805985355231293</v>
       </c>
       <c r="F57">
-        <v>-0.04444115183634327</v>
+        <v>-0.06685507717120599</v>
       </c>
       <c r="G57">
-        <v>-0.00272253806927313</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.03168670150377655</v>
+      </c>
+      <c r="H57">
+        <v>-0.02100972686653172</v>
+      </c>
+      <c r="I57">
+        <v>0.01342189197566139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.2041456615488065</v>
+        <v>0.2100971892972533</v>
       </c>
       <c r="C58">
-        <v>0.02127045626058824</v>
+        <v>0.09670521653897553</v>
       </c>
       <c r="D58">
-        <v>0.0006906619622756411</v>
+        <v>0.09343348469028118</v>
       </c>
       <c r="E58">
-        <v>0.1302753181951277</v>
+        <v>-0.01293559033761271</v>
       </c>
       <c r="F58">
-        <v>-0.03312526363553818</v>
+        <v>-0.2586848066141597</v>
       </c>
       <c r="G58">
-        <v>-0.1126969669620893</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.4169485236899402</v>
+      </c>
+      <c r="H58">
+        <v>0.2468366229535886</v>
+      </c>
+      <c r="I58">
+        <v>-0.4643251134209169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.01716583311725636</v>
+        <v>0.05141168746621078</v>
       </c>
       <c r="C59">
-        <v>-0.1993214313896871</v>
+        <v>-0.1999022224893796</v>
       </c>
       <c r="D59">
-        <v>0.002845688554065963</v>
+        <v>0.01932652006034323</v>
       </c>
       <c r="E59">
-        <v>0.05982887061562611</v>
+        <v>-0.02122181847474324</v>
       </c>
       <c r="F59">
-        <v>-0.001181970002703209</v>
+        <v>-0.06896705059892642</v>
       </c>
       <c r="G59">
-        <v>0.008129119472958258</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.02714447888709119</v>
+      </c>
+      <c r="H59">
+        <v>-0.01095801520912548</v>
+      </c>
+      <c r="I59">
+        <v>0.04949733310865646</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1873233406700256</v>
+        <v>0.1903330399860909</v>
       </c>
       <c r="C60">
-        <v>-0.09466736537659699</v>
+        <v>-0.05074478577194696</v>
       </c>
       <c r="D60">
-        <v>-0.005326563460095975</v>
+        <v>0.05015094562838027</v>
       </c>
       <c r="E60">
-        <v>0.1864065153912892</v>
+        <v>0.009249850485512775</v>
       </c>
       <c r="F60">
-        <v>-0.0121798985743484</v>
+        <v>-0.202841307161752</v>
       </c>
       <c r="G60">
-        <v>0.07809118029074985</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.2804148108801334</v>
+      </c>
+      <c r="H60">
+        <v>0.0451399610461518</v>
+      </c>
+      <c r="I60">
+        <v>-0.07797957099948864</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.04287498903170264</v>
+        <v>0.03815565208046184</v>
       </c>
       <c r="C61">
-        <v>0.01316322161883309</v>
+        <v>0.02952777584169481</v>
       </c>
       <c r="D61">
-        <v>-2.853477551512483e-05</v>
+        <v>-0.0006744731004084815</v>
       </c>
       <c r="E61">
-        <v>0.03927571153489975</v>
+        <v>0.008691885603395247</v>
       </c>
       <c r="F61">
-        <v>0.005233382027086322</v>
+        <v>-0.04015699028651939</v>
       </c>
       <c r="G61">
-        <v>0.007395165892267921</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.006749624134346936</v>
+      </c>
+      <c r="H61">
+        <v>-0.0162580927902671</v>
+      </c>
+      <c r="I61">
+        <v>-0.03144859716554634</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2498,219 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.0442660327158958</v>
+        <v>0.03059983670771979</v>
       </c>
       <c r="C63">
-        <v>0.01563272340247714</v>
+        <v>0.0216716911284258</v>
       </c>
       <c r="D63">
-        <v>-0.01711371406594853</v>
+        <v>0.001401560333464735</v>
       </c>
       <c r="E63">
-        <v>0.04292550098579179</v>
+        <v>0.01556088733937232</v>
       </c>
       <c r="F63">
-        <v>-0.01934432375156799</v>
+        <v>-0.02967275457527489</v>
       </c>
       <c r="G63">
-        <v>-0.003967999041721708</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.04995920921548153</v>
+      </c>
+      <c r="H63">
+        <v>-0.01346276914436611</v>
+      </c>
+      <c r="I63">
+        <v>0.03959222294519524</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.07701291600962966</v>
+        <v>0.05895603324385553</v>
       </c>
       <c r="C64">
-        <v>0.05284174003433243</v>
+        <v>0.04353419555760846</v>
       </c>
       <c r="D64">
-        <v>-0.04739781837467801</v>
+        <v>-0.01483499910256925</v>
       </c>
       <c r="E64">
-        <v>0.05079753055551619</v>
+        <v>0.04138597142662655</v>
       </c>
       <c r="F64">
-        <v>0.03306066116479778</v>
+        <v>-0.05145912695966975</v>
       </c>
       <c r="G64">
-        <v>0.09311711436993485</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.008628613785993784</v>
+      </c>
+      <c r="H64">
+        <v>-0.08100466921776732</v>
+      </c>
+      <c r="I64">
+        <v>0.04548015500345352</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.02150385505478117</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.0111840675089191</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.006182835229684097</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.006328503360146533</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.002012624917383693</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.005277676453282342</v>
+      </c>
+      <c r="H65">
+        <v>0.01979015041338756</v>
+      </c>
+      <c r="I65">
+        <v>-0.01208913862052271</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.08407715354696031</v>
+        <v>0.06659058743168067</v>
       </c>
       <c r="C66">
-        <v>0.03876054800386822</v>
+        <v>0.05534765862269359</v>
       </c>
       <c r="D66">
-        <v>-0.0328890451264619</v>
+        <v>0.01229036724136536</v>
       </c>
       <c r="E66">
-        <v>0.08442449404966369</v>
+        <v>0.04855395309902294</v>
       </c>
       <c r="F66">
-        <v>-0.003922909564837952</v>
+        <v>-0.06959452156574707</v>
       </c>
       <c r="G66">
-        <v>0.009957172205074116</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.00312139477451544</v>
+      </c>
+      <c r="H66">
+        <v>-0.01038344657013582</v>
+      </c>
+      <c r="I66">
+        <v>-0.002000688704676844</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.05765966657204354</v>
+        <v>0.04699830717134016</v>
       </c>
       <c r="C67">
-        <v>-0.01067783420284724</v>
+        <v>-0.003231067209089976</v>
       </c>
       <c r="D67">
-        <v>-0.01120601886791277</v>
+        <v>0.001994538491162131</v>
       </c>
       <c r="E67">
-        <v>0.01735033661361583</v>
+        <v>0.009231163875324083</v>
       </c>
       <c r="F67">
-        <v>0.02303314454082337</v>
+        <v>-0.03604951481950364</v>
       </c>
       <c r="G67">
-        <v>0.01544550479577835</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.0008473795965659484</v>
+      </c>
+      <c r="H67">
+        <v>-0.0416839367120059</v>
+      </c>
+      <c r="I67">
+        <v>-0.03581758702944233</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.02850755420626186</v>
+        <v>0.06139230814622911</v>
       </c>
       <c r="C68">
-        <v>-0.2466446504533804</v>
+        <v>-0.2337079887311616</v>
       </c>
       <c r="D68">
-        <v>0.01639575797619452</v>
+        <v>0.0197039982723369</v>
       </c>
       <c r="E68">
-        <v>0.05237687788186494</v>
+        <v>-0.0376947390289514</v>
       </c>
       <c r="F68">
-        <v>-0.02977591861345341</v>
+        <v>-0.0554270612020021</v>
       </c>
       <c r="G68">
-        <v>0.00154807298954757</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.02188194353614953</v>
+      </c>
+      <c r="H68">
+        <v>0.006145365555795129</v>
+      </c>
+      <c r="I68">
+        <v>0.1057625095516398</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.07321698229098041</v>
+        <v>0.07231040535660493</v>
       </c>
       <c r="C69">
-        <v>0.01287423463799148</v>
+        <v>0.01825878318000481</v>
       </c>
       <c r="D69">
-        <v>-0.02308322888072791</v>
+        <v>0.00594077673412602</v>
       </c>
       <c r="E69">
-        <v>-0.01566194072923737</v>
+        <v>0.03234077807444258</v>
       </c>
       <c r="F69">
-        <v>-0.02699856846976335</v>
+        <v>0.0006262765383069918</v>
       </c>
       <c r="G69">
-        <v>-0.00459086399211709</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.03214046306653368</v>
+      </c>
+      <c r="H69">
+        <v>-0.02845611418305792</v>
+      </c>
+      <c r="I69">
+        <v>0.00750171610822742</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2730,248 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.01968012546132564</v>
+        <v>0.05743156888883038</v>
       </c>
       <c r="C71">
-        <v>-0.2845898526922857</v>
+        <v>-0.2498293315126857</v>
       </c>
       <c r="D71">
-        <v>0.03054283567862559</v>
+        <v>0.02414544159210831</v>
       </c>
       <c r="E71">
-        <v>0.08156400227456172</v>
+        <v>-0.06484097288610591</v>
       </c>
       <c r="F71">
-        <v>-0.03141711497441745</v>
+        <v>-0.07179030823446252</v>
       </c>
       <c r="G71">
-        <v>0.01600851919643274</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.02375458771420233</v>
+      </c>
+      <c r="H71">
+        <v>-0.01779931205563846</v>
+      </c>
+      <c r="I71">
+        <v>0.0955306877452612</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1283143057455895</v>
+        <v>0.1243348623124245</v>
       </c>
       <c r="C72">
-        <v>-0.01690023397683645</v>
+        <v>0.02996087052573399</v>
       </c>
       <c r="D72">
-        <v>-0.04019635765997418</v>
+        <v>0.007412173237614859</v>
       </c>
       <c r="E72">
-        <v>0.07869359222110474</v>
+        <v>0.06460691304895368</v>
       </c>
       <c r="F72">
-        <v>0.01238355307873507</v>
+        <v>-0.08397215390412359</v>
       </c>
       <c r="G72">
-        <v>-0.01695198251954692</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.006822564672097272</v>
+      </c>
+      <c r="H72">
+        <v>0.03543815116722167</v>
+      </c>
+      <c r="I72">
+        <v>-0.1168052359358271</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2878973555430669</v>
+        <v>0.2741381025729788</v>
       </c>
       <c r="C73">
-        <v>-0.1876429636135672</v>
+        <v>-0.07241480923135914</v>
       </c>
       <c r="D73">
-        <v>0.05748128701620538</v>
+        <v>0.09146452706425234</v>
       </c>
       <c r="E73">
-        <v>0.3229478598615722</v>
+        <v>-0.03921295228977485</v>
       </c>
       <c r="F73">
-        <v>0.0415449772571493</v>
+        <v>-0.3003988347881436</v>
       </c>
       <c r="G73">
-        <v>0.1198822043261395</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.480892569822255</v>
+      </c>
+      <c r="H73">
+        <v>0.1489669623017774</v>
+      </c>
+      <c r="I73">
+        <v>-0.2543644527185788</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.160843062316385</v>
+        <v>0.1489667494970199</v>
       </c>
       <c r="C74">
-        <v>0.009242679306836673</v>
+        <v>0.03340615328875177</v>
       </c>
       <c r="D74">
-        <v>-0.04157660608765809</v>
+        <v>0.01199036309824784</v>
       </c>
       <c r="E74">
-        <v>-0.04340595099997446</v>
+        <v>0.05361463594999176</v>
       </c>
       <c r="F74">
-        <v>-0.0349526917434874</v>
+        <v>0.06109514715209025</v>
       </c>
       <c r="G74">
-        <v>-0.05533340888114669</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.02934487997970725</v>
+      </c>
+      <c r="H74">
+        <v>0.0125447671227096</v>
+      </c>
+      <c r="I74">
+        <v>0.04517680234485483</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.241404609884077</v>
+        <v>0.2424174598557546</v>
       </c>
       <c r="C75">
-        <v>0.004962489335395425</v>
+        <v>0.02666716548215006</v>
       </c>
       <c r="D75">
-        <v>-0.0795256994451414</v>
+        <v>0.027523514814605</v>
       </c>
       <c r="E75">
-        <v>-0.1373190941435143</v>
+        <v>0.1153431657572167</v>
       </c>
       <c r="F75">
-        <v>-0.04689954976925423</v>
+        <v>0.1463941003599766</v>
       </c>
       <c r="G75">
-        <v>0.001523010710174276</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.02136088205313571</v>
+      </c>
+      <c r="H75">
+        <v>-0.0226224358430196</v>
+      </c>
+      <c r="I75">
+        <v>0.08101872007077168</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.2506049546793679</v>
+        <v>0.2632945247038823</v>
       </c>
       <c r="C76">
-        <v>-0.01809221157420823</v>
+        <v>0.01622874775494615</v>
       </c>
       <c r="D76">
-        <v>-0.1090686991788212</v>
+        <v>-0.01174134134587736</v>
       </c>
       <c r="E76">
-        <v>-0.136065780168961</v>
+        <v>0.1394227190543177</v>
       </c>
       <c r="F76">
-        <v>-0.02183844210574731</v>
+        <v>0.1832504623658506</v>
       </c>
       <c r="G76">
-        <v>-0.04785457114064219</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.03862423806144549</v>
+      </c>
+      <c r="H76">
+        <v>0.04506241638704667</v>
+      </c>
+      <c r="I76">
+        <v>0.05208827029783597</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1363646967171711</v>
+        <v>0.1224821729219297</v>
       </c>
       <c r="C77">
-        <v>0.06160070086491767</v>
+        <v>0.07477619612571004</v>
       </c>
       <c r="D77">
-        <v>0.03332966193540094</v>
+        <v>0.007276452134505847</v>
       </c>
       <c r="E77">
-        <v>0.1551341861388064</v>
+        <v>-0.02807455691154717</v>
       </c>
       <c r="F77">
-        <v>0.03989898572504307</v>
+        <v>-0.1572880521577782</v>
       </c>
       <c r="G77">
-        <v>-0.001696978709381668</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.193720558520727</v>
+      </c>
+      <c r="H77">
+        <v>0.01001041845793147</v>
+      </c>
+      <c r="I77">
+        <v>0.2850126659304748</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.0874831219201473</v>
+        <v>0.07419420214848882</v>
       </c>
       <c r="C78">
-        <v>0.05174322102183601</v>
+        <v>0.07560066469592058</v>
       </c>
       <c r="D78">
-        <v>0.0105542612096465</v>
+        <v>-0.005747842019552622</v>
       </c>
       <c r="E78">
-        <v>0.05520378029372867</v>
+        <v>0.01534705882212081</v>
       </c>
       <c r="F78">
-        <v>-0.006799774550815845</v>
+        <v>-0.07736965151201317</v>
       </c>
       <c r="G78">
-        <v>-0.00179821916561162</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.02165531867590487</v>
+      </c>
+      <c r="H78">
+        <v>-0.01814796979822306</v>
+      </c>
+      <c r="I78">
+        <v>0.0369525945778952</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2991,74 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.05669781221509382</v>
+        <v>0.1404788204690798</v>
       </c>
       <c r="C80">
-        <v>0.010947454238354</v>
+        <v>-0.04474084270955019</v>
       </c>
       <c r="D80">
-        <v>0.1051750728209331</v>
+        <v>-0.9736268287838532</v>
       </c>
       <c r="E80">
-        <v>-0.07787238076427734</v>
+        <v>-0.06676936738843135</v>
       </c>
       <c r="F80">
-        <v>0.9601583454802887</v>
+        <v>-0.04561039042408488</v>
       </c>
       <c r="G80">
-        <v>0.02085052943159706</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.04186403522753144</v>
+      </c>
+      <c r="H80">
+        <v>-0.02827600505655203</v>
+      </c>
+      <c r="I80">
+        <v>-0.07272909474991168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1675991806013461</v>
+        <v>0.1782000425325898</v>
       </c>
       <c r="C81">
-        <v>-0.01188805492240782</v>
+        <v>0.005996760086532462</v>
       </c>
       <c r="D81">
-        <v>-0.0552154751280786</v>
+        <v>0.006424443814746082</v>
       </c>
       <c r="E81">
-        <v>-0.1759731324504767</v>
+        <v>0.08629016920954727</v>
       </c>
       <c r="F81">
-        <v>-0.03160351898966553</v>
+        <v>0.15730250863089</v>
       </c>
       <c r="G81">
-        <v>-0.05121779954624771</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.002751099617506104</v>
+      </c>
+      <c r="H81">
+        <v>0.01898027189501343</v>
+      </c>
+      <c r="I81">
+        <v>0.04378224499271627</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3078,45 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.09122347331969007</v>
+        <v>0.06797991483458536</v>
       </c>
       <c r="C83">
-        <v>0.07456225060706576</v>
+        <v>0.0547844111413528</v>
       </c>
       <c r="D83">
-        <v>0.06209184673485699</v>
+        <v>0.01365859333908774</v>
       </c>
       <c r="E83">
-        <v>0.02339208063582419</v>
+        <v>-0.03391609690250084</v>
       </c>
       <c r="F83">
-        <v>-0.03666624454175212</v>
+        <v>-0.04857491829379403</v>
       </c>
       <c r="G83">
-        <v>0.0446939361203598</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.03293381361522767</v>
+      </c>
+      <c r="H83">
+        <v>-0.06262809377753557</v>
+      </c>
+      <c r="I83">
+        <v>0.04728358931410857</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3136,335 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2390541118749444</v>
+        <v>0.2509878071698197</v>
       </c>
       <c r="C85">
-        <v>0.05551265310382731</v>
+        <v>0.05572415662014454</v>
       </c>
       <c r="D85">
-        <v>-0.06615838099386114</v>
+        <v>0.007378741681939041</v>
       </c>
       <c r="E85">
-        <v>-0.1677901220505081</v>
+        <v>0.1117113424689182</v>
       </c>
       <c r="F85">
-        <v>-0.00665651906811121</v>
+        <v>0.186975534442297</v>
       </c>
       <c r="G85">
-        <v>-0.06135237345052068</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.01821217594764589</v>
+      </c>
+      <c r="H85">
+        <v>0.007744767269895911</v>
+      </c>
+      <c r="I85">
+        <v>0.07419806104582827</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.04281314097939311</v>
+        <v>0.02454998236010445</v>
       </c>
       <c r="C86">
-        <v>0.04574436045327289</v>
+        <v>0.04892519060861998</v>
       </c>
       <c r="D86">
-        <v>-0.002402098425653694</v>
+        <v>0.001217182606829606</v>
       </c>
       <c r="E86">
-        <v>0.06762300058660591</v>
+        <v>0.01931109881351869</v>
       </c>
       <c r="F86">
-        <v>0.002302040468512987</v>
+        <v>-0.08025220381348311</v>
       </c>
       <c r="G86">
-        <v>-0.01966918130898615</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.05815916714877153</v>
+      </c>
+      <c r="H86">
+        <v>-0.005182946092736796</v>
+      </c>
+      <c r="I86">
+        <v>0.0376000650970176</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02619784993596231</v>
+        <v>0.03247930051374782</v>
       </c>
       <c r="C87">
-        <v>-0.05619327581775286</v>
+        <v>-0.009798282589106226</v>
       </c>
       <c r="D87">
-        <v>0.0006351455405751902</v>
+        <v>0.001604895815889755</v>
       </c>
       <c r="E87">
-        <v>0.09466759828291602</v>
+        <v>0.002150827116070652</v>
       </c>
       <c r="F87">
-        <v>0.001907516731259164</v>
+        <v>-0.101835621735317</v>
       </c>
       <c r="G87">
-        <v>-0.04319136040357305</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.005917406546105598</v>
+      </c>
+      <c r="H87">
+        <v>0.02825895841676429</v>
+      </c>
+      <c r="I87">
+        <v>0.002013453048475735</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.03057103308021788</v>
+        <v>0.03039702653910256</v>
       </c>
       <c r="C88">
-        <v>0.02558580028837966</v>
+        <v>0.01087579248294266</v>
       </c>
       <c r="D88">
-        <v>0.0002372212494897986</v>
+        <v>-0.008968114974129282</v>
       </c>
       <c r="E88">
-        <v>-0.008071816007860909</v>
+        <v>0.007965891334479504</v>
       </c>
       <c r="F88">
-        <v>0.003530873240236735</v>
+        <v>0.01012555613738132</v>
       </c>
       <c r="G88">
-        <v>-0.00398274261832149</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02886267831720212</v>
+      </c>
+      <c r="H88">
+        <v>-0.0468178693304485</v>
+      </c>
+      <c r="I88">
+        <v>-0.006859032427215695</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.01962263597410831</v>
+        <v>0.09231602461954785</v>
       </c>
       <c r="C89">
-        <v>-0.3850400790299035</v>
+        <v>-0.3864186158362551</v>
       </c>
       <c r="D89">
-        <v>0.08757964632652836</v>
+        <v>0.05025973778616547</v>
       </c>
       <c r="E89">
-        <v>0.006589930387074363</v>
+        <v>-0.08518059350742341</v>
       </c>
       <c r="F89">
-        <v>-0.03340666498637136</v>
+        <v>-0.03042960472951559</v>
       </c>
       <c r="G89">
-        <v>0.003408250765686452</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.04664918522121535</v>
+      </c>
+      <c r="H89">
+        <v>-0.0417762071182672</v>
+      </c>
+      <c r="I89">
+        <v>0.2013903272992595</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.01177877009981411</v>
+        <v>0.0594824742382116</v>
       </c>
       <c r="C90">
-        <v>-0.2908649000650942</v>
+        <v>-0.3187181514645324</v>
       </c>
       <c r="D90">
-        <v>0.0509835532854486</v>
+        <v>0.02253002733125927</v>
       </c>
       <c r="E90">
-        <v>0.05647797925202349</v>
+        <v>-0.07015622599731708</v>
       </c>
       <c r="F90">
-        <v>-0.03230630517309784</v>
+        <v>-0.03194622430615628</v>
       </c>
       <c r="G90">
-        <v>0.02783005811839705</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.006215393445104507</v>
+      </c>
+      <c r="H90">
+        <v>-0.01850949591717517</v>
+      </c>
+      <c r="I90">
+        <v>0.1618581537102439</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2808600528630502</v>
+        <v>0.2890765580490869</v>
       </c>
       <c r="C91">
-        <v>0.04826262230091535</v>
+        <v>0.05425212938918657</v>
       </c>
       <c r="D91">
-        <v>-0.08410542571305318</v>
+        <v>0.01431518679390443</v>
       </c>
       <c r="E91">
-        <v>-0.2744649539789856</v>
+        <v>0.104651360353015</v>
       </c>
       <c r="F91">
-        <v>0.008479328941578785</v>
+        <v>0.2714880733065378</v>
       </c>
       <c r="G91">
-        <v>-0.02451785040693358</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.01191151601214391</v>
+      </c>
+      <c r="H91">
+        <v>0.01841985101373373</v>
+      </c>
+      <c r="I91">
+        <v>0.08788193953752296</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.05557131496146479</v>
+        <v>0.1250095871754272</v>
       </c>
       <c r="C92">
-        <v>-0.4093445251943582</v>
+        <v>-0.4087512469276574</v>
       </c>
       <c r="D92">
-        <v>0.1579155693921658</v>
+        <v>0.007684344983634386</v>
       </c>
       <c r="E92">
-        <v>-0.1070326677388022</v>
+        <v>-0.115349002290064</v>
       </c>
       <c r="F92">
-        <v>0.07555062979372533</v>
+        <v>0.1165668266433374</v>
       </c>
       <c r="G92">
-        <v>-0.06347237372409149</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.4534895879345653</v>
+      </c>
+      <c r="H92">
+        <v>-0.07994408523008435</v>
+      </c>
+      <c r="I92">
+        <v>-0.4305073443526666</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.007428495780002669</v>
+        <v>0.07477125435326927</v>
       </c>
       <c r="C93">
-        <v>-0.367655549470699</v>
+        <v>-0.3858729374044993</v>
       </c>
       <c r="D93">
-        <v>0.07570400548573322</v>
+        <v>0.04302315613244546</v>
       </c>
       <c r="E93">
-        <v>-0.02542160835050674</v>
+        <v>-0.1104069663628856</v>
       </c>
       <c r="F93">
-        <v>0.01631969980857691</v>
+        <v>0.002958507521450997</v>
       </c>
       <c r="G93">
-        <v>0.04283332948916269</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.02123689349117082</v>
+      </c>
+      <c r="H93">
+        <v>-0.05137674605980318</v>
+      </c>
+      <c r="I93">
+        <v>0.09156589978751863</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2848377903537688</v>
+        <v>0.3108561683663007</v>
       </c>
       <c r="C94">
-        <v>-0.1042573889653516</v>
+        <v>-0.04240278979467696</v>
       </c>
       <c r="D94">
-        <v>-0.05422648489380989</v>
+        <v>0.04285780783185553</v>
       </c>
       <c r="E94">
-        <v>-0.3934984307710898</v>
+        <v>0.1360003521302157</v>
       </c>
       <c r="F94">
-        <v>-0.03827046536129591</v>
+        <v>0.3355296653258545</v>
       </c>
       <c r="G94">
-        <v>-0.3935595401852003</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1005623273051086</v>
+      </c>
+      <c r="H94">
+        <v>0.2369043348906806</v>
+      </c>
+      <c r="I94">
+        <v>0.01225173769765697</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1601837198515692</v>
+        <v>0.1264654446576593</v>
       </c>
       <c r="C95">
-        <v>0.03473981811845629</v>
+        <v>0.05718855738723815</v>
       </c>
       <c r="D95">
-        <v>-0.00531699157302391</v>
+        <v>0.08623628801959721</v>
       </c>
       <c r="E95">
-        <v>-0.272094080441749</v>
+        <v>0.03051311610062351</v>
       </c>
       <c r="F95">
-        <v>-0.04112382170794428</v>
+        <v>0.08025312643831191</v>
       </c>
       <c r="G95">
-        <v>0.8617223425288214</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.09327253985552102</v>
+      </c>
+      <c r="H95">
+        <v>-0.8753977681577519</v>
+      </c>
+      <c r="I95">
+        <v>-0.2458762921228529</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3484,16 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3513,45 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2140065029728335</v>
+        <v>0.2098015590249352</v>
       </c>
       <c r="C98">
-        <v>-0.1053422916291722</v>
+        <v>-0.05856276555621903</v>
       </c>
       <c r="D98">
-        <v>0.03127656146914708</v>
+        <v>0.06476240323549717</v>
       </c>
       <c r="E98">
-        <v>0.09030153688020502</v>
+        <v>-0.03097785050803444</v>
       </c>
       <c r="F98">
-        <v>-0.03575466926668222</v>
+        <v>-0.1600523568637196</v>
       </c>
       <c r="G98">
-        <v>0.09757877089951467</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.3227305491982769</v>
+      </c>
+      <c r="H98">
+        <v>0.06375011223613096</v>
+      </c>
+      <c r="I98">
+        <v>-0.1612057039927929</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3571,16 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3600,103 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.02569490356390343</v>
+        <v>0.0173297434159309</v>
       </c>
       <c r="C101">
-        <v>0.02404725283148929</v>
+        <v>0.02712384872520609</v>
       </c>
       <c r="D101">
-        <v>-0.03054730184381235</v>
+        <v>-0.004940560069289856</v>
       </c>
       <c r="E101">
-        <v>0.03798252880538328</v>
+        <v>0.03513246264355066</v>
       </c>
       <c r="F101">
-        <v>-0.01324042005646408</v>
+        <v>-0.06903969538421265</v>
       </c>
       <c r="G101">
-        <v>-2.355581698179885e-05</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1151698084070605</v>
+      </c>
+      <c r="H101">
+        <v>-0.007694765857686378</v>
+      </c>
+      <c r="I101">
+        <v>-0.09185311980760677</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1107815737188628</v>
+        <v>0.1181306934474592</v>
       </c>
       <c r="C102">
-        <v>0.0284076108183488</v>
+        <v>0.0282945373353703</v>
       </c>
       <c r="D102">
-        <v>-0.03731296723216181</v>
+        <v>-0.004970676882180732</v>
       </c>
       <c r="E102">
-        <v>-0.09650797999581935</v>
+        <v>0.05516570793419119</v>
       </c>
       <c r="F102">
-        <v>0.01919025446984987</v>
+        <v>0.1091990487811241</v>
       </c>
       <c r="G102">
-        <v>-0.009656309696324486</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.001467237157922346</v>
+      </c>
+      <c r="H102">
+        <v>-0.005211622598980043</v>
+      </c>
+      <c r="I102">
+        <v>0.06471454468523495</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.02088049037531699</v>
+        <v>0.02947368563992817</v>
       </c>
       <c r="C103">
-        <v>0.006115210872399469</v>
+        <v>0.006797905174633058</v>
       </c>
       <c r="D103">
-        <v>-0.009893222531943073</v>
+        <v>-0.008716125444943334</v>
       </c>
       <c r="E103">
-        <v>-0.03338317580499054</v>
+        <v>0.02067032804787528</v>
       </c>
       <c r="F103">
-        <v>-0.00788934979570541</v>
+        <v>0.02581377302954152</v>
       </c>
       <c r="G103">
-        <v>-0.007411637047236163</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01409447460483517</v>
+      </c>
+      <c r="H103">
+        <v>-0.01414101071144332</v>
+      </c>
+      <c r="I103">
+        <v>0.02111378368382882</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +3714,12 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
